--- a/data_selection/result/地区生产总值-中山-解释变量v3-先行v3.xlsx
+++ b/data_selection/result/地区生产总值-中山-解释变量v3-先行v3.xlsx
@@ -778,42 +778,42 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>工业销售产值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>大型企业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>股份制企业+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>按税种分-海关代征税+EX_ST_53_SS</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>重工业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>货运量+万吨+EX_ST_58_JTYD</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>外商及港澳台商投资企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>按税种分-海关代征税+EX_ST_53_SS</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>货运量+万吨+EX_ST_58_JTYD</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>股份制企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值+EX_ST_55_ZYCS</t>
         </is>
       </c>
     </row>
@@ -863,28 +863,28 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -907,24 +907,24 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P3" t="n">
         <v>5.7</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
         <v>4.8</v>
       </c>
       <c r="V3" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -947,24 +947,24 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
+        <v>5.0683544304</v>
+      </c>
+      <c r="P4" t="n">
         <v>7.7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>12.5734177215</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
         <v>9.5518987342</v>
       </c>
-      <c r="Q4" t="n">
-        <v>4.3860759494</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>12.5734177215</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>5.0683544304</v>
+        <v>4.3860759494</v>
       </c>
     </row>
     <row r="5">
@@ -999,24 +999,24 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
         <v>6.4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
         <v>3.1</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -1055,24 +1055,24 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P6" t="n">
         <v>6.4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
         <v>10.2</v>
       </c>
-      <c r="Q6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
         <v>4.1</v>
       </c>
       <c r="V6" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -1117,28 +1117,28 @@
         <v>79.87238386930001</v>
       </c>
       <c r="O7" t="n">
+        <v>8.6392405063</v>
+      </c>
+      <c r="P7" t="n">
         <v>9.2088607595</v>
       </c>
-      <c r="P7" t="n">
-        <v>12.3417721519</v>
-      </c>
       <c r="Q7" t="n">
-        <v>7.5949367089</v>
+        <v>7.7848101266</v>
       </c>
       <c r="R7" t="n">
         <v>14.8292188028</v>
       </c>
       <c r="S7" t="n">
+        <v>12.3417721519</v>
+      </c>
+      <c r="T7" t="n">
         <v>-2.6497384051</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7.7848101266</v>
       </c>
       <c r="U7" t="n">
         <v>10.5104041462</v>
       </c>
       <c r="V7" t="n">
-        <v>8.6392405063</v>
+        <v>7.5949367089</v>
       </c>
     </row>
     <row r="8">
@@ -1187,28 +1187,28 @@
         <v>170.0133837918</v>
       </c>
       <c r="O8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P8" t="n">
         <v>8.959487534600001</v>
       </c>
-      <c r="P8" t="n">
-        <v>10.6150450139</v>
-      </c>
       <c r="Q8" t="n">
-        <v>6.6222299169</v>
+        <v>8.7647160665</v>
       </c>
       <c r="R8" t="n">
         <v>19.7832077228</v>
       </c>
       <c r="S8" t="n">
+        <v>10.6150450139</v>
+      </c>
+      <c r="T8" t="n">
         <v>-4.2461807664</v>
-      </c>
-      <c r="T8" t="n">
-        <v>8.7647160665</v>
       </c>
       <c r="U8" t="n">
         <v>9.169067168</v>
       </c>
       <c r="V8" t="n">
-        <v>9.4</v>
+        <v>6.6222299169</v>
       </c>
     </row>
     <row r="9">
@@ -1257,28 +1257,28 @@
         <v>148.8140219812</v>
       </c>
       <c r="O9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="P9" t="n">
         <v>9.155844155800001</v>
       </c>
-      <c r="P9" t="n">
-        <v>9.9350649351</v>
-      </c>
       <c r="Q9" t="n">
-        <v>6.8181818182</v>
+        <v>8.8636363636</v>
       </c>
       <c r="R9" t="n">
         <v>21.8960462721</v>
       </c>
       <c r="S9" t="n">
+        <v>9.9350649351</v>
+      </c>
+      <c r="T9" t="n">
         <v>-5.6172136209</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8.8636363636</v>
       </c>
       <c r="U9" t="n">
         <v>9.547923815900001</v>
       </c>
       <c r="V9" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8181818182</v>
       </c>
     </row>
     <row r="10">
@@ -1325,28 +1325,28 @@
         <v>68.40000000000001</v>
       </c>
       <c r="O10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="P10" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="P10" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Q10" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>18.9002899039</v>
       </c>
       <c r="S10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T10" t="n">
         <v>-3.7051569144</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
       </c>
       <c r="U10" t="n">
         <v>7.9783130841</v>
       </c>
       <c r="V10" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
@@ -1393,28 +1393,28 @@
         <v>122.1632939052</v>
       </c>
       <c r="O11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.1</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Q11" t="n">
-        <v>-0.2</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
         <v>17.0061682946383</v>
       </c>
       <c r="S11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.59218272308514</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.6</v>
       </c>
       <c r="U11" t="n">
         <v>4.6758685801</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1461,28 +1461,28 @@
         <v>129.902061327</v>
       </c>
       <c r="O12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P12" t="n">
         <v>6.4</v>
       </c>
-      <c r="P12" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Q12" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="R12" t="n">
         <v>7.489335770871429</v>
       </c>
       <c r="S12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T12" t="n">
         <v>-8.43635059795214</v>
-      </c>
-      <c r="T12" t="n">
-        <v>6.9</v>
       </c>
       <c r="U12" t="n">
         <v>6.2</v>
       </c>
       <c r="V12" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -1529,28 +1529,28 @@
         <v>88.3900732152</v>
       </c>
       <c r="O13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P13" t="n">
         <v>9.5</v>
       </c>
-      <c r="P13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="R13" t="n">
         <v>-0.8</v>
       </c>
       <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
         <v>-5.26390983515354</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.6</v>
       </c>
       <c r="U13" t="n">
         <v>4.3068260112</v>
       </c>
       <c r="V13" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
@@ -1599,28 +1599,28 @@
         <v>58.1549982247</v>
       </c>
       <c r="O14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P14" t="n">
         <v>8.1</v>
       </c>
-      <c r="P14" t="n">
-        <v>3.46470588235294</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
         <v>-6.5</v>
       </c>
       <c r="S14" t="n">
+        <v>3.46470588235294</v>
+      </c>
+      <c r="T14" t="n">
         <v>-5.756351703489321</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6</v>
       </c>
       <c r="U14" t="n">
         <v>4.130407895299999</v>
       </c>
       <c r="V14" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -1669,28 +1669,28 @@
         <v>6.047646373131269</v>
       </c>
       <c r="O15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P15" t="n">
         <v>-0.282352941176471</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.658823529411765</v>
-      </c>
       <c r="Q15" t="n">
-        <v>-2.35294117647059</v>
+        <v>9.03529411764706</v>
       </c>
       <c r="R15" t="n">
         <v>2.30167941493155</v>
       </c>
       <c r="S15" t="n">
+        <v>0.658823529411765</v>
+      </c>
+      <c r="T15" t="n">
         <v>-20.495581243508</v>
-      </c>
-      <c r="T15" t="n">
-        <v>9.03529411764706</v>
       </c>
       <c r="U15" t="n">
         <v>4.0103365511</v>
       </c>
       <c r="V15" t="n">
-        <v>5.3</v>
+        <v>-2.35294117647059</v>
       </c>
     </row>
     <row r="16">
@@ -1737,28 +1737,28 @@
         <v>-43.4276410433697</v>
       </c>
       <c r="O16" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P16" t="n">
         <v>-1.12</v>
       </c>
-      <c r="P16" t="n">
-        <v>-2.08</v>
-      </c>
       <c r="Q16" t="n">
-        <v>-3.36</v>
+        <v>-0.32</v>
       </c>
       <c r="R16" t="n">
         <v>-10.4930835081354</v>
       </c>
       <c r="S16" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="T16" t="n">
         <v>-21.0865337903781</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.32</v>
       </c>
       <c r="U16" t="n">
         <v>1.6883986243</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.7</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="17">
@@ -1807,28 +1807,28 @@
         <v>-16.6880702733021</v>
       </c>
       <c r="O17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.5</v>
       </c>
-      <c r="P17" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="Q17" t="n">
-        <v>-5.9</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
         <v>-11.7</v>
       </c>
       <c r="S17" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="T17" t="n">
         <v>-27.5262454367667</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>2.3057043359</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.2</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="18">
@@ -1877,28 +1877,28 @@
         <v>-6.91502147479942</v>
       </c>
       <c r="O18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P18" t="n">
         <v>-0.8</v>
       </c>
-      <c r="P18" t="n">
-        <v>-2.4</v>
-      </c>
       <c r="Q18" t="n">
-        <v>-6.1</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>-9.4</v>
       </c>
       <c r="S18" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="T18" t="n">
         <v>-30.7160699519731</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.1</v>
       </c>
       <c r="U18" t="n">
         <v>3.2722226516</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.5</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="19">
@@ -1947,28 +1947,28 @@
         <v>-55.2748801464743</v>
       </c>
       <c r="O19" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="P19" t="n">
         <v>-22.4</v>
       </c>
-      <c r="P19" t="n">
-        <v>-23.3</v>
-      </c>
       <c r="Q19" t="n">
-        <v>-26</v>
+        <v>-25.4</v>
       </c>
       <c r="R19" t="n">
         <v>-41.9</v>
       </c>
       <c r="S19" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="T19" t="n">
         <v>-40.3194728030394</v>
-      </c>
-      <c r="T19" t="n">
-        <v>-25.4</v>
       </c>
       <c r="U19" t="n">
         <v>-20.3815217801</v>
       </c>
       <c r="V19" t="n">
-        <v>-26.5</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="20">
@@ -2017,28 +2017,28 @@
         <v>-22.5492321946027</v>
       </c>
       <c r="O20" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="P20" t="n">
         <v>-9.1</v>
       </c>
-      <c r="P20" t="n">
-        <v>-6.9</v>
-      </c>
       <c r="Q20" t="n">
-        <v>-14.1</v>
+        <v>-6</v>
       </c>
       <c r="R20" t="n">
         <v>-22.8</v>
       </c>
       <c r="S20" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="T20" t="n">
         <v>-34.4223148285766</v>
-      </c>
-      <c r="T20" t="n">
-        <v>-6</v>
       </c>
       <c r="U20" t="n">
         <v>-7.6430295985</v>
       </c>
       <c r="V20" t="n">
-        <v>-10.6</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="21">
@@ -2083,28 +2083,28 @@
         <v>-36.5365442699424</v>
       </c>
       <c r="O21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P21" t="n">
         <v>-2.2</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.8</v>
-      </c>
       <c r="Q21" t="n">
-        <v>-8.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>-14.7</v>
       </c>
       <c r="S21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T21" t="n">
         <v>-29.0594388897689</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.2</v>
       </c>
       <c r="U21" t="n">
         <v>-0.6550534889</v>
       </c>
       <c r="V21" t="n">
-        <v>-4</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2149,28 +2149,28 @@
         <v>-18.809076026583</v>
       </c>
       <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.4</v>
       </c>
-      <c r="P22" t="n">
-        <v>5.9</v>
-      </c>
       <c r="Q22" t="n">
-        <v>-4.6</v>
+        <v>7.9</v>
       </c>
       <c r="R22" t="n">
         <v>-12.9</v>
       </c>
       <c r="S22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T22" t="n">
         <v>-12.2080991666</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.9</v>
       </c>
       <c r="U22" t="n">
         <v>2.8210480834</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="23">
